--- a/fuentes/contenidos/grado05/guion01/SolicitudGraficaCS_05_01_CO.xlsx
+++ b/fuentes/contenidos/grado05/guion01/SolicitudGraficaCS_05_01_CO.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="154">
   <si>
     <t>Asignatura:</t>
   </si>
@@ -524,6 +524,12 @@
   </si>
   <si>
     <t>CS_05_01_CO</t>
+  </si>
+  <si>
+    <t>http://www.senalmemoria.gov.co/index.php/home/historias-que-suenan/item/71-el-memorial-de-agravios</t>
+  </si>
+  <si>
+    <t>Imagen de Camilo Torres</t>
   </si>
 </sst>
 </file>
@@ -1170,7 +1176,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1222,8 +1228,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1529,8 +1536,12 @@
     <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="51"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="52">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
@@ -1556,6 +1567,7 @@
     <cellStyle name="Hipervínculo" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="51" builtinId="8"/>
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
@@ -2277,9 +2289,9 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:P108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="140" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="140" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2475,13 +2487,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="str">
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),"IMG01","")</f>
         <v>IMG01</v>
       </c>
-      <c r="B10" s="27">
-        <v>187654</v>
+      <c r="B10" s="110" t="s">
+        <v>152</v>
       </c>
       <c r="C10" s="27" t="str">
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
@@ -2509,7 +2521,9 @@
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J10" s="14"/>
+      <c r="J10" s="111" t="s">
+        <v>153</v>
+      </c>
       <c r="K10" s="19"/>
     </row>
     <row r="11" spans="1:16" s="12" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -5105,8 +5119,11 @@
       <formula1>"3,4,5,6,7,8,9,10,11"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="B10" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/fuentes/contenidos/grado05/guion01/SolicitudGraficaCS_05_01_CO.xlsx
+++ b/fuentes/contenidos/grado05/guion01/SolicitudGraficaCS_05_01_CO.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="203">
   <si>
     <t>Asignatura:</t>
   </si>
@@ -514,9 +514,6 @@
     <t>Horizontal</t>
   </si>
   <si>
-    <t>La Independencia</t>
-  </si>
-  <si>
     <t>Carlos Penagos Aley</t>
   </si>
   <si>
@@ -529,7 +526,179 @@
     <t>http://www.senalmemoria.gov.co/index.php/home/historias-que-suenan/item/71-el-memorial-de-agravios</t>
   </si>
   <si>
-    <t>Imagen de Camilo Torres</t>
+    <t>IMG01</t>
+  </si>
+  <si>
+    <t>http://www.bibliotecanacional.gov.co/sites/default/files/u8165/imagenes/Exposiciones_virtuales/comuneros/comunerosurdaneta.jpg</t>
+  </si>
+  <si>
+    <t>Vertical</t>
+  </si>
+  <si>
+    <t>IMG02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://en.wikipedia.org/wiki/Royal_Botanical_Expedition_to_New_Granada#mediaviewer/File:Jos%C3%A9_Celestino_Mutis.jpg </t>
+  </si>
+  <si>
+    <t>Rebelión de los comuneros</t>
+  </si>
+  <si>
+    <t>José Celestino Mutis</t>
+  </si>
+  <si>
+    <t>IMG03</t>
+  </si>
+  <si>
+    <t>http://www.colombiaaprende.edu.co/html/mediateca/1607/articles-238985_Imagen.jpg</t>
+  </si>
+  <si>
+    <t>Antonio Nariño y los Derechos del Hombre</t>
+  </si>
+  <si>
+    <t>IMG04</t>
+  </si>
+  <si>
+    <t>Camilo Torres</t>
+  </si>
+  <si>
+    <t>IMG05</t>
+  </si>
+  <si>
+    <t>http://upload.wikimedia.org/wikipedia/commons/5/50/Jacques-Louis_David_-_The_Emperor_Napoleon_in_His_Study_at_the_Tuileries_-_Google_Art_Project.jpg</t>
+  </si>
+  <si>
+    <t>Cuadro de Napoleón Bonaparte</t>
+  </si>
+  <si>
+    <t>IMG06</t>
+  </si>
+  <si>
+    <t>http://aulaplaneta.planetasaber.com/encyclopedia/default.asp?idreg=162946&amp;ruta=Buscador</t>
+  </si>
+  <si>
+    <t>La Independencia de la Nueva Granada</t>
+  </si>
+  <si>
+    <t>El sueño de la razón produce monstruos, pintura de Goya</t>
+  </si>
+  <si>
+    <t>IMG07</t>
+  </si>
+  <si>
+    <r>
+      <t>http://aulaplaneta.planetasaber.com/encyclopedia/default.asp?idreg=554954&amp;ruta=Buscador</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>Entrada de George Washington a Nueva York</t>
+  </si>
+  <si>
+    <t>IMG08</t>
+  </si>
+  <si>
+    <t>http://aulaplaneta.planetasaber.com/search/results.asp?txt=la%20libertad%20guiando%20al%20pueblo</t>
+  </si>
+  <si>
+    <r>
+      <t>La libertad guiando al pueblo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>, de Eugene Delacroix</t>
+    </r>
+  </si>
+  <si>
+    <t>IMG09</t>
+  </si>
+  <si>
+    <t>http://upload.wikimedia.org/wikipedia/commons/6/6b/Independencia_big.jpg</t>
+  </si>
+  <si>
+    <t>Firma del acta de Independencia de la Nueva Granada</t>
+  </si>
+  <si>
+    <t>IMG010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://upload.wikimedia.org/wikipedia/commons/f/fe/Divisi%C3%B3n_pol%C3%ADtica_del_Vireinato_de_Santaf%C3%A9_1810.jpg </t>
+  </si>
+  <si>
+    <t>Mapa de la división política del Virreinato de Santa Fe en 1810</t>
+  </si>
+  <si>
+    <t>IMG11</t>
+  </si>
+  <si>
+    <t>http://upload.wikimedia.org/wikipedia/commons/c/c9/Antonio_Narino_-_LABLAA.jpg</t>
+  </si>
+  <si>
+    <t>Antonio Nariño</t>
+  </si>
+  <si>
+    <t>IMG12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://upload.wikimedia.org/wikipedia/commons/0/04/Camilotorres.jpg </t>
+  </si>
+  <si>
+    <t>IMG13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.museonacional.gov.co/colecciones/piezas-notables/Galera%20Historia/14.Pablo-Morillo.jpg </t>
+  </si>
+  <si>
+    <t>Pablo Morillo</t>
+  </si>
+  <si>
+    <t>IMG14</t>
+  </si>
+  <si>
+    <t>http://upload.wikimedia.org/wikipedia/commons/d/d5/Policarpa_Salabarrieta.jpg</t>
+  </si>
+  <si>
+    <t>Policarpa Salavarrieta</t>
+  </si>
+  <si>
+    <t>IMG15</t>
+  </si>
+  <si>
+    <t>http://en.wikipedia.org/wiki/Sim%C3%B3n_Bol%C3%ADvar#/media/File:Bolivar_Arturo_Michelena.jpg</t>
+  </si>
+  <si>
+    <t>El Libertador en traje de campaña. Por Arturo Michelena</t>
+  </si>
+  <si>
+    <t>IMG16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://commons.wikimedia.org/wiki/File:Batalla_de_Boyaca_de_Martin_Tovar_y_Tovar.jpg </t>
+  </si>
+  <si>
+    <t>La Batalla de Boyacá</t>
+  </si>
+  <si>
+    <t>IMG17</t>
+  </si>
+  <si>
+    <t>http://es.wikipedia.org/wiki/Campa%C3%B1a_Libertadora_de_Nueva_Granada#/media/File:Campa%C3%B1a_libertadora_de_la_Nueva_Granada_(1819).png</t>
+  </si>
+  <si>
+    <t>La campaña libertadora</t>
   </si>
 </sst>
 </file>
@@ -539,7 +708,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -681,6 +850,57 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0563C1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -730,7 +950,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -1175,6 +1395,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1230,7 +1465,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1299,25 +1534,10 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1440,6 +1660,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="51"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1536,9 +1757,34 @@
     <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="51"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="51" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="51" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="52">
@@ -2287,11 +2533,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:P108"/>
+  <dimension ref="A1:P107"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="140" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="140" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2319,8 +2565,8 @@
       <c r="D1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
       <c r="J1" s="16"/>
       <c r="K1" s="16"/>
     </row>
@@ -2329,16 +2575,16 @@
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="86" t="s">
+      <c r="C2" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="87"/>
-      <c r="F2" s="79" t="s">
+      <c r="D2" s="83"/>
+      <c r="F2" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="80"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
       <c r="J2" s="16"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -2346,16 +2592,16 @@
       <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="88">
+      <c r="C3" s="84">
         <v>5</v>
       </c>
-      <c r="D3" s="89"/>
-      <c r="F3" s="81">
-        <v>42079</v>
-      </c>
-      <c r="G3" s="82"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
+      <c r="D3" s="85"/>
+      <c r="F3" s="77">
+        <v>42107</v>
+      </c>
+      <c r="G3" s="78"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
       <c r="J3" s="16"/>
     </row>
     <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
@@ -2363,19 +2609,19 @@
       <c r="B4" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="88" t="s">
-        <v>148</v>
-      </c>
-      <c r="D4" s="89"/>
+      <c r="C4" s="110" t="s">
+        <v>169</v>
+      </c>
+      <c r="D4" s="85"/>
       <c r="E4" s="5"/>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="G4" s="54" t="s">
-        <v>150</v>
-      </c>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
+      <c r="G4" s="49" t="s">
+        <v>149</v>
+      </c>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
       <c r="J4" s="16"/>
       <c r="K4" s="16"/>
     </row>
@@ -2384,20 +2630,20 @@
       <c r="B5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="90" t="s">
-        <v>149</v>
-      </c>
-      <c r="D5" s="91"/>
+      <c r="C5" s="86" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5" s="87"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="53" t="str">
+      <c r="F5" s="48" t="str">
         <f>IF(G4="Recurso","Motor del recurso","")</f>
         <v/>
       </c>
-      <c r="G5" s="53" t="s">
+      <c r="G5" s="48" t="s">
         <v>103</v>
       </c>
-      <c r="H5" s="56"/>
-      <c r="I5" s="77"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="72"/>
       <c r="J5" s="16"/>
       <c r="K5" s="16"/>
     </row>
@@ -2409,20 +2655,20 @@
       <c r="E6" s="7"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
       <c r="J6" s="16"/>
       <c r="K6" s="16"/>
     </row>
     <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="35" t="s">
         <v>41</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="D7" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="D7" s="34" t="s">
         <v>40</v>
       </c>
       <c r="F7" s="1"/>
@@ -2438,12 +2684,12 @@
       <c r="C8" s="10"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
-      <c r="F8" s="83" t="s">
+      <c r="F8" s="79" t="s">
         <v>63</v>
       </c>
-      <c r="G8" s="84"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="85"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="81"/>
       <c r="J8" s="18"/>
       <c r="K8" s="12"/>
       <c r="L8" s="2"/>
@@ -2453,7 +2699,7 @@
       <c r="P8" s="2"/>
     </row>
     <row r="9" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="31" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="25" t="s">
@@ -2468,16 +2714,16 @@
       <c r="E9" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="76" t="s">
+      <c r="F9" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="G9" s="76" t="s">
+      <c r="G9" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="H9" s="76" t="s">
+      <c r="H9" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="I9" s="76" t="s">
+      <c r="I9" s="71" t="s">
         <v>138</v>
       </c>
       <c r="J9" s="25" t="s">
@@ -2487,26 +2733,25 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="str">
-        <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),"IMG01","")</f>
-        <v>IMG01</v>
-      </c>
-      <c r="B10" s="110" t="s">
+    <row r="10" spans="1:16" s="12" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="106" t="s">
         <v>152</v>
       </c>
+      <c r="B10" s="74" t="s">
+        <v>153</v>
+      </c>
       <c r="C10" s="27" t="str">
-        <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
+        <f t="shared" ref="C10:C21" si="0">IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>146</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="F10" s="14" t="str">
-        <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I10="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" ref="F10:F73" si="1">IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I10="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v>CS_05_01_CO_IMG01_small</v>
       </c>
       <c r="G10" s="14" t="str">
@@ -2514,509 +2759,628 @@
         <v>526 x 370 px</v>
       </c>
       <c r="H10" s="14" t="str">
-        <f>IF(I10&lt;&gt;"",IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" ref="H10:H73" si="2">IF(I10&lt;&gt;"",IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v>CS_05_01_CO_IMG01_zoom</v>
       </c>
       <c r="I10" s="14" t="str">
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J10" s="111" t="s">
-        <v>153</v>
-      </c>
-      <c r="K10" s="19"/>
-    </row>
-    <row r="11" spans="1:16" s="12" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="str">
-        <f>IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE(LEFT(A10,3),IF(MID(A10,4,2)+1&lt;10,CONCATENATE("0",MID(A10,4,2)+1))),"")</f>
-        <v/>
-      </c>
-      <c r="B11" s="28"/>
+      <c r="J10" s="107" t="s">
+        <v>157</v>
+      </c>
+      <c r="K10" s="15"/>
+    </row>
+    <row r="11" spans="1:16" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="106" t="s">
+        <v>155</v>
+      </c>
+      <c r="B11" s="74" t="s">
+        <v>156</v>
+      </c>
       <c r="C11" s="27" t="str">
-        <f t="shared" ref="C11:C22" si="0">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
-        <v/>
-      </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
+        <f t="shared" si="0"/>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>154</v>
+      </c>
       <c r="F11" s="14" t="str">
-        <f t="shared" ref="F11:F74" si="1">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I11="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>CS_05_01_CO_IMG02_small</v>
       </c>
       <c r="G11" s="14" t="str">
         <f>IF(F11&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
+        <v>526 x 370 px</v>
       </c>
       <c r="H11" s="14" t="str">
-        <f t="shared" ref="H11:H74" si="2">IF(I11&lt;&gt;"",IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>CS_05_01_CO_IMG02_zoom</v>
       </c>
       <c r="I11" s="14" t="str">
         <f>IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J11" s="19"/>
-      <c r="K11" s="15"/>
-    </row>
-    <row r="12" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="str">
-        <f t="shared" ref="A12:A30" si="3">IF(OR(B12&lt;&gt;"",J12&lt;&gt;""),CONCATENATE(LEFT(A11,3),IF(MID(A11,4,2)+1&lt;10,CONCATENATE("0",MID(A11,4,2)+1))),"")</f>
-        <v/>
-      </c>
-      <c r="B12" s="29"/>
+        <v>800 x 600 px</v>
+      </c>
+      <c r="J11" s="107" t="s">
+        <v>158</v>
+      </c>
+      <c r="K11" s="19"/>
+    </row>
+    <row r="12" spans="1:16" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="106" t="s">
+        <v>159</v>
+      </c>
+      <c r="B12" s="74" t="s">
+        <v>160</v>
+      </c>
       <c r="C12" s="27" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>154</v>
+      </c>
       <c r="F12" s="14" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>CS_05_01_CO_IMG03_small</v>
       </c>
       <c r="G12" s="14" t="str">
         <f>IF(F12&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
+        <v>526 x 370 px</v>
       </c>
       <c r="H12" s="14" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>CS_05_01_CO_IMG03_zoom</v>
       </c>
       <c r="I12" s="14" t="str">
         <f>IF(OR(B12&lt;&gt;"",J12&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J12" s="19"/>
+        <v>800 x 600 px</v>
+      </c>
+      <c r="J12" s="106" t="s">
+        <v>161</v>
+      </c>
       <c r="K12" s="19"/>
     </row>
-    <row r="13" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B13" s="28"/>
+    <row r="13" spans="1:16" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="106" t="s">
+        <v>162</v>
+      </c>
+      <c r="B13" s="74" t="s">
+        <v>151</v>
+      </c>
       <c r="C13" s="27" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>154</v>
+      </c>
       <c r="F13" s="14" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>CS_05_01_CO_IMG04_small</v>
       </c>
       <c r="G13" s="14" t="str">
         <f>IF(F13&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
+        <v>526 x 370 px</v>
       </c>
       <c r="H13" s="14" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>CS_05_01_CO_IMG04_zoom</v>
       </c>
       <c r="I13" s="14" t="str">
         <f>IF(OR(B13&lt;&gt;"",J13&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J13" s="19"/>
+        <v>800 x 600 px</v>
+      </c>
+      <c r="J13" s="106" t="s">
+        <v>163</v>
+      </c>
       <c r="K13" s="19"/>
     </row>
-    <row r="14" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B14" s="28"/>
+    <row r="14" spans="1:16" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="108" t="s">
+        <v>164</v>
+      </c>
+      <c r="B14" s="74" t="s">
+        <v>165</v>
+      </c>
       <c r="C14" s="27" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>154</v>
+      </c>
       <c r="F14" s="14" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>CS_05_01_CO_IMG05_small</v>
       </c>
       <c r="G14" s="14" t="str">
         <f>IF(F14&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
+        <v>526 x 370 px</v>
       </c>
       <c r="H14" s="14" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>CS_05_01_CO_IMG05_zoom</v>
       </c>
       <c r="I14" s="14" t="str">
         <f>IF(OR(B14&lt;&gt;"",J14&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-    </row>
-    <row r="15" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B15" s="28"/>
+        <v>800 x 600 px</v>
+      </c>
+      <c r="J14" s="109" t="s">
+        <v>166</v>
+      </c>
+      <c r="K14" s="21"/>
+    </row>
+    <row r="15" spans="1:16" s="12" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="106" t="s">
+        <v>167</v>
+      </c>
+      <c r="B15" s="74" t="s">
+        <v>168</v>
+      </c>
       <c r="C15" s="27" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>154</v>
+      </c>
       <c r="F15" s="14" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>CS_05_01_CO_IMG06_small</v>
       </c>
       <c r="G15" s="14" t="str">
         <f>IF(F15&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
+        <v>526 x 370 px</v>
       </c>
       <c r="H15" s="14" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>CS_05_01_CO_IMG06_zoom</v>
       </c>
       <c r="I15" s="14" t="str">
         <f>IF(OR(B15&lt;&gt;"",J15&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-    </row>
-    <row r="16" spans="1:16" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A16" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B16" s="28"/>
+        <v>800 x 600 px</v>
+      </c>
+      <c r="J15" s="106" t="s">
+        <v>170</v>
+      </c>
+      <c r="K15" s="32"/>
+    </row>
+    <row r="16" spans="1:16" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="106" t="s">
+        <v>171</v>
+      </c>
+      <c r="B16" s="111" t="s">
+        <v>172</v>
+      </c>
       <c r="C16" s="27" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>147</v>
+      </c>
       <c r="F16" s="14" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>CS_05_01_CO_IMG07_small</v>
       </c>
       <c r="G16" s="14" t="str">
         <f>IF(F16&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
+        <v>526 x 370 px</v>
       </c>
       <c r="H16" s="14" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>CS_05_01_CO_IMG07_zoom</v>
       </c>
       <c r="I16" s="14" t="str">
         <f>IF(OR(B16&lt;&gt;"",J16&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J16" s="34"/>
-      <c r="K16" s="37"/>
-    </row>
-    <row r="17" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B17" s="28"/>
+        <v>800 x 600 px</v>
+      </c>
+      <c r="J16" s="106" t="s">
+        <v>173</v>
+      </c>
+      <c r="K16" s="21"/>
+    </row>
+    <row r="17" spans="1:11" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="106" t="s">
+        <v>174</v>
+      </c>
+      <c r="B17" s="112" t="s">
+        <v>175</v>
+      </c>
       <c r="C17" s="27" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>154</v>
+      </c>
       <c r="F17" s="14" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>CS_05_01_CO_IMG08_small</v>
       </c>
       <c r="G17" s="14" t="str">
         <f>IF(F17&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
+        <v>526 x 370 px</v>
       </c>
       <c r="H17" s="14" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>CS_05_01_CO_IMG08_zoom</v>
       </c>
       <c r="I17" s="14" t="str">
         <f>IF(OR(B17&lt;&gt;"",J17&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J17" s="21"/>
+        <v>800 x 600 px</v>
+      </c>
+      <c r="J17" s="113" t="s">
+        <v>176</v>
+      </c>
       <c r="K17" s="21"/>
     </row>
-    <row r="18" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B18" s="28"/>
+    <row r="18" spans="1:11" s="12" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="106" t="s">
+        <v>177</v>
+      </c>
+      <c r="B18" s="74" t="s">
+        <v>178</v>
+      </c>
       <c r="C18" s="27" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>147</v>
+      </c>
       <c r="F18" s="14" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>CS_05_01_CO_IMG09_small</v>
       </c>
       <c r="G18" s="14" t="str">
         <f>IF(F18&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
+        <v>526 x 370 px</v>
       </c>
       <c r="H18" s="14" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>CS_05_01_CO_IMG09_zoom</v>
       </c>
       <c r="I18" s="14" t="str">
         <f>IF(OR(B18&lt;&gt;"",J18&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-    </row>
-    <row r="19" spans="1:11" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A19" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B19" s="35"/>
+        <v>800 x 600 px</v>
+      </c>
+      <c r="J18" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="K18" s="32"/>
+    </row>
+    <row r="19" spans="1:11" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="106" t="s">
+        <v>180</v>
+      </c>
+      <c r="B19" s="74" t="s">
+        <v>181</v>
+      </c>
       <c r="C19" s="27" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>147</v>
+      </c>
       <c r="F19" s="14" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>CS_05_01_CO_IMG010_small</v>
       </c>
       <c r="G19" s="14" t="str">
         <f>IF(F19&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
+        <v>526 x 370 px</v>
       </c>
       <c r="H19" s="14" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>CS_05_01_CO_IMG010_zoom</v>
       </c>
       <c r="I19" s="14" t="str">
         <f>IF(OR(B19&lt;&gt;"",J19&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J19" s="34"/>
-      <c r="K19" s="37"/>
-    </row>
-    <row r="20" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B20" s="28"/>
+        <v>800 x 600 px</v>
+      </c>
+      <c r="J19" s="106" t="s">
+        <v>182</v>
+      </c>
+      <c r="K19" s="21"/>
+    </row>
+    <row r="20" spans="1:11" s="12" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="106" t="s">
+        <v>183</v>
+      </c>
+      <c r="B20" s="74" t="s">
+        <v>184</v>
+      </c>
       <c r="C20" s="27" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>154</v>
+      </c>
       <c r="F20" s="14" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>CS_05_01_CO_IMG11_small</v>
       </c>
       <c r="G20" s="14" t="str">
         <f>IF(F20&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
+        <v>526 x 370 px</v>
       </c>
       <c r="H20" s="14" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>CS_05_01_CO_IMG11_zoom</v>
       </c>
       <c r="I20" s="14" t="str">
         <f>IF(OR(B20&lt;&gt;"",J20&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J20" s="19"/>
+        <v>800 x 600 px</v>
+      </c>
+      <c r="J20" s="106" t="s">
+        <v>185</v>
+      </c>
       <c r="K20" s="21"/>
     </row>
-    <row r="21" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B21" s="30"/>
+    <row r="21" spans="1:11" s="12" customFormat="1" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="106" t="s">
+        <v>186</v>
+      </c>
+      <c r="B21" s="114" t="s">
+        <v>187</v>
+      </c>
       <c r="C21" s="27" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>154</v>
+      </c>
       <c r="F21" s="14" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>CS_05_01_CO_IMG12_small</v>
       </c>
       <c r="G21" s="14" t="str">
         <f>IF(F21&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
+        <v>526 x 370 px</v>
       </c>
       <c r="H21" s="14" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>CS_05_01_CO_IMG12_zoom</v>
       </c>
       <c r="I21" s="14" t="str">
         <f>IF(OR(B21&lt;&gt;"",J21&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-    </row>
-    <row r="22" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B22" s="31"/>
-      <c r="C22" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
+        <v>800 x 600 px</v>
+      </c>
+      <c r="J21" s="106" t="s">
+        <v>163</v>
+      </c>
+      <c r="K21" s="20"/>
+    </row>
+    <row r="22" spans="1:11" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="106" t="s">
+        <v>188</v>
+      </c>
+      <c r="B22" s="74" t="s">
+        <v>189</v>
+      </c>
+      <c r="C22" s="115" t="s">
+        <v>149</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>154</v>
+      </c>
       <c r="F22" s="14" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>CS_05_01_CO_IMG13_small</v>
       </c>
       <c r="G22" s="14" t="str">
         <f>IF(F22&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
+        <v>526 x 370 px</v>
       </c>
       <c r="H22" s="14" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>CS_05_01_CO_IMG13_zoom</v>
       </c>
       <c r="I22" s="14" t="str">
         <f>IF(OR(B22&lt;&gt;"",J22&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J22" s="14"/>
-      <c r="K22" s="20"/>
-    </row>
-    <row r="23" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
+        <v>800 x 600 px</v>
+      </c>
+      <c r="J22" s="106" t="s">
+        <v>190</v>
+      </c>
+      <c r="K22" s="19"/>
+    </row>
+    <row r="23" spans="1:11" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="106" t="s">
+        <v>191</v>
+      </c>
+      <c r="B23" s="74" t="s">
+        <v>192</v>
+      </c>
+      <c r="C23" s="116" t="s">
+        <v>149</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>154</v>
+      </c>
       <c r="F23" s="14" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>CS_05_01_CO_IMG14_small</v>
       </c>
       <c r="G23" s="14" t="str">
         <f>IF(F23&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
+        <v>526 x 370 px</v>
       </c>
       <c r="H23" s="14" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>CS_05_01_CO_IMG14_zoom</v>
       </c>
       <c r="I23" s="14" t="str">
         <f>IF(OR(B23&lt;&gt;"",J23&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
-    </row>
-    <row r="24" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
+        <v>800 x 600 px</v>
+      </c>
+      <c r="J23" s="117" t="s">
+        <v>193</v>
+      </c>
+      <c r="K23" s="15"/>
+    </row>
+    <row r="24" spans="1:11" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="106" t="s">
+        <v>194</v>
+      </c>
+      <c r="B24" s="74" t="s">
+        <v>195</v>
+      </c>
+      <c r="C24" s="115" t="s">
+        <v>149</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>154</v>
+      </c>
       <c r="F24" s="14" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>CS_05_01_CO_IMG15_small</v>
       </c>
       <c r="G24" s="14" t="str">
         <f>IF(F24&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
+        <v>526 x 370 px</v>
       </c>
       <c r="H24" s="14" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>CS_05_01_CO_IMG15_zoom</v>
       </c>
       <c r="I24" s="14" t="str">
         <f>IF(OR(B24&lt;&gt;"",J24&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J24" s="14"/>
-      <c r="K24" s="15"/>
-    </row>
-    <row r="25" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
+        <v>800 x 600 px</v>
+      </c>
+      <c r="J24" s="117" t="s">
+        <v>196</v>
+      </c>
+      <c r="K24" s="19"/>
+    </row>
+    <row r="25" spans="1:11" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="106" t="s">
+        <v>197</v>
+      </c>
+      <c r="B25" s="74" t="s">
+        <v>198</v>
+      </c>
+      <c r="C25" s="115" t="s">
+        <v>149</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>147</v>
+      </c>
       <c r="F25" s="14" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>CS_05_01_CO_IMG16_small</v>
       </c>
       <c r="G25" s="14" t="str">
         <f>IF(F25&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
+        <v>526 x 370 px</v>
       </c>
       <c r="H25" s="14" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>CS_05_01_CO_IMG16_zoom</v>
       </c>
       <c r="I25" s="14" t="str">
         <f>IF(OR(B25&lt;&gt;"",J25&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J25" s="14"/>
+        <v>800 x 600 px</v>
+      </c>
+      <c r="J25" s="106" t="s">
+        <v>199</v>
+      </c>
       <c r="K25" s="19"/>
     </row>
-    <row r="26" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
+    <row r="26" spans="1:11" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="106" t="s">
+        <v>200</v>
+      </c>
+      <c r="B26" s="118" t="s">
+        <v>201</v>
+      </c>
+      <c r="C26" s="115" t="s">
+        <v>149</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>154</v>
+      </c>
       <c r="F26" s="14" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>CS_05_01_CO_IMG17_small</v>
       </c>
       <c r="G26" s="14" t="str">
         <f>IF(F26&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
+        <v>526 x 370 px</v>
       </c>
       <c r="H26" s="14" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>CS_05_01_CO_IMG17_zoom</v>
       </c>
       <c r="I26" s="14" t="str">
         <f>IF(OR(B26&lt;&gt;"",J26&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J26" s="14"/>
+        <v>800 x 600 px</v>
+      </c>
+      <c r="J26" s="106" t="s">
+        <v>202</v>
+      </c>
       <c r="K26" s="19"/>
     </row>
     <row r="27" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
+        <f t="shared" ref="A11:A29" si="3">IF(OR(B27&lt;&gt;"",J27&lt;&gt;""),CONCATENATE(LEFT(A26,3),IF(MID(A26,4,2)+1&lt;10,CONCATENATE("0",MID(A26,4,2)+1))),"")</f>
+        <v/>
+      </c>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
       <c r="D27" s="14"/>
       <c r="E27" s="14"/>
       <c r="F27" s="14" t="str">
@@ -3043,8 +3407,8 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
       <c r="D28" s="14"/>
       <c r="E28" s="14"/>
       <c r="F28" s="14" t="str">
@@ -3095,10 +3459,7 @@
       <c r="K29" s="19"/>
     </row>
     <row r="30" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="A30" s="13"/>
       <c r="B30" s="28"/>
       <c r="C30" s="28"/>
       <c r="D30" s="14"/>
@@ -3199,8 +3560,8 @@
     </row>
     <row r="34" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="13"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
       <c r="D34" s="14"/>
       <c r="E34" s="14"/>
       <c r="F34" s="14" t="str">
@@ -3219,13 +3580,13 @@
         <f>IF(OR(B34&lt;&gt;"",J34&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J34" s="19"/>
-      <c r="K34" s="19"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="15"/>
     </row>
     <row r="35" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="13"/>
-      <c r="B35" s="27"/>
-      <c r="C35" s="27"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="29"/>
       <c r="D35" s="14"/>
       <c r="E35" s="14"/>
       <c r="F35" s="14" t="str">
@@ -3249,8 +3610,8 @@
     </row>
     <row r="36" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13"/>
-      <c r="B36" s="32"/>
-      <c r="C36" s="32"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
       <c r="D36" s="14"/>
       <c r="E36" s="14"/>
       <c r="F36" s="14" t="str">
@@ -3269,13 +3630,13 @@
         <f>IF(OR(B36&lt;&gt;"",J36&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J36" s="14"/>
+      <c r="J36" s="22"/>
       <c r="K36" s="15"/>
     </row>
     <row r="37" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13"/>
-      <c r="B37" s="27"/>
-      <c r="C37" s="27"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="30"/>
       <c r="D37" s="14"/>
       <c r="E37" s="14"/>
       <c r="F37" s="14" t="str">
@@ -3294,13 +3655,13 @@
         <f>IF(OR(B37&lt;&gt;"",J37&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J37" s="22"/>
+      <c r="J37" s="23"/>
       <c r="K37" s="15"/>
     </row>
     <row r="38" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13"/>
-      <c r="B38" s="33"/>
-      <c r="C38" s="33"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="27"/>
       <c r="D38" s="14"/>
       <c r="E38" s="14"/>
       <c r="F38" s="14" t="str">
@@ -3319,7 +3680,7 @@
         <f>IF(OR(B38&lt;&gt;"",J38&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J38" s="23"/>
+      <c r="J38" s="14"/>
       <c r="K38" s="15"/>
     </row>
     <row r="39" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -3874,8 +4235,8 @@
     </row>
     <row r="61" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="13"/>
-      <c r="B61" s="27"/>
-      <c r="C61" s="27"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="13"/>
       <c r="D61" s="14"/>
       <c r="E61" s="14"/>
       <c r="F61" s="14" t="str">
@@ -4204,7 +4565,7 @@
       <c r="D74" s="14"/>
       <c r="E74" s="14"/>
       <c r="F74" s="14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="F74:F107" si="4">IF(OR(B74&lt;&gt;"",J74&lt;&gt;""),CONCATENATE($C$7,"_",$A74,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I74="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v/>
       </c>
       <c r="G74" s="14" t="str">
@@ -4212,7 +4573,7 @@
         <v/>
       </c>
       <c r="H74" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="H74:H107" si="5">IF(I74&lt;&gt;"",IF(OR(B74&lt;&gt;"",J74&lt;&gt;""),CONCATENATE($C$7,"_",$A74,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v/>
       </c>
       <c r="I74" s="14" t="str">
@@ -4229,7 +4590,7 @@
       <c r="D75" s="14"/>
       <c r="E75" s="14"/>
       <c r="F75" s="14" t="str">
-        <f t="shared" ref="F75:F108" si="4">IF(OR(B75&lt;&gt;"",J75&lt;&gt;""),CONCATENATE($C$7,"_",$A75,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I75="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G75" s="14" t="str">
@@ -4237,7 +4598,7 @@
         <v/>
       </c>
       <c r="H75" s="14" t="str">
-        <f t="shared" ref="H75:H108" si="5">IF(I75&lt;&gt;"",IF(OR(B75&lt;&gt;"",J75&lt;&gt;""),CONCATENATE($C$7,"_",$A75,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I75" s="14" t="str">
@@ -5046,31 +5407,6 @@
       </c>
       <c r="J107" s="14"/>
       <c r="K107" s="15"/>
-    </row>
-    <row r="108" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="13"/>
-      <c r="B108" s="13"/>
-      <c r="C108" s="13"/>
-      <c r="D108" s="14"/>
-      <c r="E108" s="14"/>
-      <c r="F108" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G108" s="14" t="str">
-        <f>IF(F108&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H108" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I108" s="14" t="str">
-        <f>IF(OR(B108&lt;&gt;"",J108&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J108" s="14"/>
-      <c r="K108" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -5096,12 +5432,6 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10:E108">
-      <formula1>"Vertical,Horizontal"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10:D108">
-      <formula1>"Ilustración,Fotografía"</formula1>
-    </dataValidation>
     <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:G3">
       <formula1>42036</formula1>
       <formula2>42490</formula2>
@@ -5118,12 +5448,32 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3">
       <formula1>"3,4,5,6,7,8,9,10,11"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10:E107">
+      <formula1>"Vertical,Horizontal"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10:D107">
+      <formula1>"Ilustración,Fotografía"</formula1>
+    </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="B10" r:id="rId1"/>
+    <hyperlink ref="B11" r:id="rId2" location="mediaviewer/File:Jos%C3%A9_Celestino_Mutis.jpg" display="http://en.wikipedia.org/wiki/Royal_Botanical_Expedition_to_New_Granada - mediaviewer/File:Jos%C3%A9_Celestino_Mutis.jpg"/>
+    <hyperlink ref="B12" r:id="rId3"/>
+    <hyperlink ref="B13" r:id="rId4"/>
+    <hyperlink ref="B14" r:id="rId5"/>
+    <hyperlink ref="B15" r:id="rId6"/>
+    <hyperlink ref="B18" r:id="rId7"/>
+    <hyperlink ref="B19" r:id="rId8" display="http://upload.wikimedia.org/wikipedia/commons/f/fe/Divisi%C3%B3n_pol%C3%ADtica_del_Vireinato_de_Santaf%C3%A9_1810.jpg"/>
+    <hyperlink ref="B20" r:id="rId9"/>
+    <hyperlink ref="B21" r:id="rId10" display="http://upload.wikimedia.org/wikipedia/commons/0/04/Camilotorres.jpg"/>
+    <hyperlink ref="B22" r:id="rId11" display="http://www.museonacional.gov.co/colecciones/piezas-notables/Galera Historia/14.Pablo-Morillo.jpg"/>
+    <hyperlink ref="B23" r:id="rId12"/>
+    <hyperlink ref="B24" r:id="rId13" location="/media/File:Bolivar_Arturo_Michelena.jpg" display="http://en.wikipedia.org/wiki/Sim%C3%B3n_Bol%C3%ADvar - /media/File:Bolivar_Arturo_Michelena.jpg"/>
+    <hyperlink ref="B25" r:id="rId14" display="http://commons.wikimedia.org/wiki/File:Batalla_de_Boyaca_de_Martin_Tovar_y_Tovar.jpg"/>
+    <hyperlink ref="B26" r:id="rId15" location="/media/File:Campa%C3%B1a_libertadora_de_la_Nueva_Granada_(1819).png" display="http://es.wikipedia.org/wiki/Campa%C3%B1a_Libertadora_de_Nueva_Granada - /media/File:Campa%C3%B1a_libertadora_de_la_Nueva_Granada_(1819).png"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId16"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -5143,539 +5493,539 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="72.25" style="38" customWidth="1"/>
-    <col min="2" max="2" width="11" style="38"/>
-    <col min="3" max="3" width="13.875" style="38" customWidth="1"/>
-    <col min="4" max="4" width="11.375" style="38" customWidth="1"/>
-    <col min="5" max="7" width="11" style="38"/>
-    <col min="8" max="11" width="11" style="38" hidden="1" customWidth="1"/>
-    <col min="12" max="16384" width="11" style="38"/>
+    <col min="1" max="1" width="72.25" style="33" customWidth="1"/>
+    <col min="2" max="2" width="11" style="33"/>
+    <col min="3" max="3" width="13.875" style="33" customWidth="1"/>
+    <col min="4" max="4" width="11.375" style="33" customWidth="1"/>
+    <col min="5" max="7" width="11" style="33"/>
+    <col min="8" max="11" width="11" style="33" hidden="1" customWidth="1"/>
+    <col min="12" max="16384" width="11" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="96"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="92"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="97" t="s">
+      <c r="B2" s="42"/>
+      <c r="C2" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="98"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="48"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="43"/>
     </row>
     <row r="3" spans="1:11" ht="63" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="103" t="s">
+      <c r="B3" s="42"/>
+      <c r="C3" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="104"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="48"/>
-      <c r="H3" s="38" t="s">
+      <c r="D3" s="100"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="43"/>
+      <c r="H3" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="38" t="s">
+      <c r="I3" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="38" t="s">
+      <c r="J3" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="38" t="s">
+      <c r="K3" s="33" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="42" t="s">
+      <c r="B4" s="42"/>
+      <c r="C4" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="41" t="s">
+      <c r="D4" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="45" t="s">
+      <c r="E4" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="48"/>
-      <c r="H4" s="38" t="s">
+      <c r="F4" s="43"/>
+      <c r="H4" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="38" t="s">
+      <c r="I4" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="38">
+      <c r="J4" s="33">
         <v>1</v>
       </c>
-      <c r="K4" s="38">
+      <c r="K4" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="44" t="s">
+      <c r="B5" s="42"/>
+      <c r="C5" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="106" t="str">
+      <c r="D5" s="102" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_CO")</f>
         <v>LE_07_04_CO</v>
       </c>
-      <c r="E5" s="107"/>
-      <c r="F5" s="48"/>
-      <c r="H5" s="38" t="s">
+      <c r="E5" s="103"/>
+      <c r="F5" s="43"/>
+      <c r="H5" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="38" t="s">
+      <c r="I5" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="38">
+      <c r="J5" s="33">
         <v>2</v>
       </c>
-      <c r="K5" s="38">
+      <c r="K5" s="33">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="48"/>
-      <c r="H6" s="38" t="s">
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="43"/>
+      <c r="H6" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="38" t="s">
+      <c r="I6" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="38">
+      <c r="J6" s="33">
         <v>3</v>
       </c>
-      <c r="K6" s="38">
+      <c r="K6" s="33">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="47"/>
-      <c r="C7" s="78" t="s">
+      <c r="B7" s="42"/>
+      <c r="C7" s="73" t="s">
         <v>144</v>
       </c>
-      <c r="D7" s="92" t="str">
+      <c r="D7" s="88" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D5,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_CO.xls</v>
       </c>
-      <c r="E7" s="92"/>
-      <c r="F7" s="93"/>
-      <c r="H7" s="38" t="s">
+      <c r="E7" s="88"/>
+      <c r="F7" s="89"/>
+      <c r="H7" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="38" t="s">
+      <c r="I7" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="38">
+      <c r="J7" s="33">
         <v>4</v>
       </c>
-      <c r="K7" s="38">
+      <c r="K7" s="33">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="49" t="s">
+      <c r="A8" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="48"/>
-      <c r="I8" s="38" t="s">
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="43"/>
+      <c r="I8" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="J8" s="38">
+      <c r="J8" s="33">
         <v>5</v>
       </c>
-      <c r="K8" s="38">
+      <c r="K8" s="33">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="49" t="s">
+      <c r="A9" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="47"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="48"/>
-      <c r="I9" s="38" t="s">
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="43"/>
+      <c r="I9" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="J9" s="38">
+      <c r="J9" s="33">
         <v>6</v>
       </c>
-      <c r="K9" s="38">
+      <c r="K9" s="33">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="50" t="s">
+      <c r="A10" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="51"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="52"/>
-      <c r="I10" s="38" t="s">
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="47"/>
+      <c r="I10" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="38">
+      <c r="J10" s="33">
         <v>7</v>
       </c>
-      <c r="K10" s="38">
+      <c r="K10" s="33">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I11" s="38" t="s">
+      <c r="I11" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="38">
+      <c r="J11" s="33">
         <v>8</v>
       </c>
-      <c r="K11" s="38">
+      <c r="K11" s="33">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I12" s="38" t="s">
+      <c r="I12" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="J12" s="38">
+      <c r="J12" s="33">
         <v>9</v>
       </c>
-      <c r="K12" s="38">
+      <c r="K12" s="33">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="94" t="s">
+      <c r="A13" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="95"/>
-      <c r="C13" s="95"/>
-      <c r="D13" s="95"/>
-      <c r="E13" s="95"/>
-      <c r="F13" s="96"/>
-      <c r="I13" s="38" t="s">
+      <c r="B13" s="91"/>
+      <c r="C13" s="91"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="92"/>
+      <c r="I13" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="J13" s="38">
+      <c r="J13" s="33">
         <v>10</v>
       </c>
-      <c r="K13" s="38">
+      <c r="K13" s="33">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="49"/>
-      <c r="B14" s="47"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="48"/>
-      <c r="I14" s="38" t="s">
+      <c r="A14" s="44"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="43"/>
+      <c r="I14" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="J14" s="38">
+      <c r="J14" s="33">
         <v>11</v>
       </c>
-      <c r="K14" s="38">
+      <c r="K14" s="33">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="47"/>
-      <c r="C15" s="97" t="s">
+      <c r="B15" s="42"/>
+      <c r="C15" s="93" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="98"/>
-      <c r="E15" s="98"/>
-      <c r="F15" s="99"/>
-      <c r="J15" s="38">
+      <c r="D15" s="94"/>
+      <c r="E15" s="94"/>
+      <c r="F15" s="95"/>
+      <c r="J15" s="33">
         <v>12</v>
       </c>
-      <c r="K15" s="38">
+      <c r="K15" s="33">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="67.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="49" t="s">
+      <c r="A16" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="47"/>
-      <c r="C16" s="42" t="s">
+      <c r="B16" s="42"/>
+      <c r="C16" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="41" t="s">
+      <c r="D16" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="41" t="s">
+      <c r="E16" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="43" t="s">
+      <c r="F16" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="J16" s="38">
+      <c r="J16" s="33">
         <v>13</v>
       </c>
-      <c r="K16" s="38">
+      <c r="K16" s="33">
         <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="46" t="s">
+      <c r="A17" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="47"/>
-      <c r="C17" s="44" t="s">
+      <c r="B17" s="42"/>
+      <c r="C17" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="100" t="str">
+      <c r="D17" s="96" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_",K45)</f>
         <v>LE_07_04_REC10</v>
       </c>
-      <c r="E17" s="101"/>
-      <c r="F17" s="102"/>
-      <c r="J17" s="38">
+      <c r="E17" s="97"/>
+      <c r="F17" s="98"/>
+      <c r="J17" s="33">
         <v>14</v>
       </c>
-      <c r="K17" s="38">
+      <c r="K17" s="33">
         <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="49" t="s">
+      <c r="A18" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="47"/>
-      <c r="C18" s="78" t="s">
+      <c r="B18" s="42"/>
+      <c r="C18" s="73" t="s">
         <v>145</v>
       </c>
-      <c r="D18" s="92" t="str">
+      <c r="D18" s="88" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D17,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_REC10.xls</v>
       </c>
-      <c r="E18" s="92"/>
-      <c r="F18" s="93"/>
-      <c r="J18" s="38">
+      <c r="E18" s="88"/>
+      <c r="F18" s="89"/>
+      <c r="J18" s="33">
         <v>15</v>
       </c>
-      <c r="K18" s="38">
+      <c r="K18" s="33">
         <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="46" t="s">
+      <c r="A19" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="47"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="48"/>
-      <c r="H19" s="38">
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="43"/>
+      <c r="H19" s="33">
         <v>3</v>
       </c>
-      <c r="J19" s="38">
+      <c r="J19" s="33">
         <v>16</v>
       </c>
-      <c r="K19" s="38">
+      <c r="K19" s="33">
         <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="50" t="s">
+      <c r="A20" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="51"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="52"/>
-      <c r="H20" s="38">
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="47"/>
+      <c r="H20" s="33">
         <v>4</v>
       </c>
-      <c r="I20" s="38">
+      <c r="I20" s="33">
         <v>5</v>
       </c>
-      <c r="J20" s="38">
+      <c r="J20" s="33">
         <v>4</v>
       </c>
-      <c r="K20" s="38">
+      <c r="K20" s="33">
         <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H21" s="38" t="str">
+      <c r="H21" s="33" t="str">
         <f>IF(INDEX(H4:H7,H20)=H4,"MA",IF(INDEX(H4:H7,H20)=H5,"CN",IF(INDEX(H4:H7,H20)=H6,"CS",IF(INDEX(H4:H7,H20)=H7,"LE"))))</f>
         <v>LE</v>
       </c>
-      <c r="I21" s="38" t="str">
+      <c r="I21" s="33" t="str">
         <f>CONCATENATE(IF((I20+2)&lt;10,"0",""),I20+2)</f>
         <v>07</v>
       </c>
-      <c r="J21" s="38" t="str">
+      <c r="J21" s="33" t="str">
         <f>CONCATENATE(IF(J20&lt;10,"0",""),J20)</f>
         <v>04</v>
       </c>
-      <c r="K21" s="38">
+      <c r="K21" s="33">
         <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K22" s="38">
+      <c r="K22" s="33">
         <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K23" s="38">
+      <c r="K23" s="33">
         <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K24" s="38">
+      <c r="K24" s="33">
         <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K25" s="38">
+      <c r="K25" s="33">
         <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K26" s="38">
+      <c r="K26" s="33">
         <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K27" s="38">
+      <c r="K27" s="33">
         <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K28" s="38">
+      <c r="K28" s="33">
         <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K29" s="38">
+      <c r="K29" s="33">
         <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K30" s="38">
+      <c r="K30" s="33">
         <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K31" s="38">
+      <c r="K31" s="33">
         <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K32" s="38">
+      <c r="K32" s="33">
         <v>29</v>
       </c>
     </row>
     <row r="33" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K33" s="38">
+      <c r="K33" s="33">
         <v>30</v>
       </c>
     </row>
     <row r="34" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K34" s="38">
+      <c r="K34" s="33">
         <v>31</v>
       </c>
     </row>
     <row r="35" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K35" s="38">
+      <c r="K35" s="33">
         <v>32</v>
       </c>
     </row>
     <row r="36" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K36" s="38">
+      <c r="K36" s="33">
         <v>33</v>
       </c>
     </row>
     <row r="37" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K37" s="38">
+      <c r="K37" s="33">
         <v>34</v>
       </c>
     </row>
     <row r="38" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K38" s="38">
+      <c r="K38" s="33">
         <v>35</v>
       </c>
     </row>
     <row r="39" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K39" s="38">
+      <c r="K39" s="33">
         <v>36</v>
       </c>
     </row>
     <row r="40" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K40" s="38">
+      <c r="K40" s="33">
         <v>37</v>
       </c>
     </row>
     <row r="41" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K41" s="38">
+      <c r="K41" s="33">
         <v>38</v>
       </c>
     </row>
     <row r="42" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K42" s="38">
+      <c r="K42" s="33">
         <v>39</v>
       </c>
     </row>
     <row r="43" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K43" s="38">
+      <c r="K43" s="33">
         <v>40</v>
       </c>
     </row>
     <row r="44" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K44" s="38">
+      <c r="K44" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K45" s="38" t="str">
+      <c r="K45" s="33" t="str">
         <f>CONCATENATE("REC",K44,0)</f>
         <v>REC10</v>
       </c>
@@ -5870,559 +6220,559 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21" style="38" customWidth="1"/>
-    <col min="2" max="2" width="22.25" style="38" customWidth="1"/>
-    <col min="3" max="3" width="17.375" style="38" customWidth="1"/>
-    <col min="4" max="4" width="10.875" style="38"/>
-    <col min="5" max="5" width="11.75" style="38" customWidth="1"/>
-    <col min="6" max="6" width="12.75" style="38" customWidth="1"/>
-    <col min="7" max="7" width="11" style="38" customWidth="1"/>
-    <col min="8" max="9" width="22.25" style="38" customWidth="1"/>
-    <col min="10" max="10" width="20.75" style="38" customWidth="1"/>
-    <col min="11" max="11" width="44.5" style="38" customWidth="1"/>
-    <col min="12" max="16384" width="10.875" style="38"/>
+    <col min="1" max="1" width="21" style="33" customWidth="1"/>
+    <col min="2" max="2" width="22.25" style="33" customWidth="1"/>
+    <col min="3" max="3" width="17.375" style="33" customWidth="1"/>
+    <col min="4" max="4" width="10.875" style="33"/>
+    <col min="5" max="5" width="11.75" style="33" customWidth="1"/>
+    <col min="6" max="6" width="12.75" style="33" customWidth="1"/>
+    <col min="7" max="7" width="11" style="33" customWidth="1"/>
+    <col min="8" max="9" width="22.25" style="33" customWidth="1"/>
+    <col min="10" max="10" width="20.75" style="33" customWidth="1"/>
+    <col min="11" max="11" width="44.5" style="33" customWidth="1"/>
+    <col min="12" max="16384" width="10.875" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="104" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="108" t="s">
+      <c r="B1" s="104" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="108" t="s">
+      <c r="C1" s="104" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="108" t="s">
+      <c r="D1" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="108" t="s">
+      <c r="E1" s="104" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="108" t="s">
+      <c r="F1" s="104" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="108" t="s">
+      <c r="G1" s="104" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="109" t="s">
+      <c r="H1" s="105" t="s">
         <v>69</v>
       </c>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="108"/>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="57" t="s">
+      <c r="A2" s="104"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="I2" s="57" t="s">
+      <c r="I2" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="J2" s="57" t="s">
+      <c r="J2" s="52" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="58" t="s">
+    <row r="3" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="58" t="s">
+      <c r="C3" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="58" t="s">
+      <c r="D3" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="E3" s="58" t="s">
+      <c r="E3" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58" t="s">
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-    </row>
-    <row r="4" spans="1:11" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="60" t="s">
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+    </row>
+    <row r="4" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="60" t="s">
+      <c r="D4" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="E4" s="60" t="s">
+      <c r="E4" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="F4" s="60" t="s">
+      <c r="F4" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60" t="s">
+      <c r="G4" s="55"/>
+      <c r="H4" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="I4" s="60" t="s">
+      <c r="I4" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="J4" s="60"/>
-    </row>
-    <row r="5" spans="1:11" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="61" t="s">
+      <c r="J4" s="55"/>
+    </row>
+    <row r="5" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="60" t="s">
+      <c r="C5" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="60" t="s">
+      <c r="D5" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="E5" s="60" t="s">
+      <c r="E5" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="F5" s="60" t="s">
+      <c r="F5" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="G5" s="62"/>
-      <c r="H5" s="60" t="s">
+      <c r="G5" s="57"/>
+      <c r="H5" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="I5" s="60" t="s">
+      <c r="I5" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="J5" s="62"/>
-    </row>
-    <row r="6" spans="1:11" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="60" t="s">
+      <c r="J5" s="57"/>
+    </row>
+    <row r="6" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="60" t="s">
+      <c r="C6" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="D6" s="60" t="s">
+      <c r="D6" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="E6" s="60" t="s">
+      <c r="E6" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="F6" s="60" t="s">
+      <c r="F6" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="G6" s="60" t="s">
+      <c r="G6" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="H6" s="60" t="s">
+      <c r="H6" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="I6" s="60" t="s">
+      <c r="I6" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="J6" s="60" t="s">
+      <c r="J6" s="55" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="59" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="60" t="s">
+    <row r="7" spans="1:11" s="54" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="B7" s="60" t="s">
+      <c r="B7" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="60" t="s">
+      <c r="D7" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="E7" s="60" t="s">
+      <c r="E7" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="F7" s="60" t="s">
+      <c r="F7" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60" t="s">
+      <c r="G7" s="55"/>
+      <c r="H7" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="I7" s="60" t="s">
+      <c r="I7" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="J7" s="60"/>
-    </row>
-    <row r="8" spans="1:11" s="59" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="60" t="s">
+      <c r="J7" s="55"/>
+    </row>
+    <row r="8" spans="1:11" s="54" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="C8" s="60" t="s">
+      <c r="C8" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="60" t="s">
+      <c r="D8" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="E8" s="60" t="s">
+      <c r="E8" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="F8" s="60" t="s">
+      <c r="F8" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60" t="s">
+      <c r="G8" s="55"/>
+      <c r="H8" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="I8" s="60" t="s">
+      <c r="I8" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="J8" s="60"/>
-    </row>
-    <row r="9" spans="1:11" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="60" t="s">
+      <c r="J8" s="55"/>
+    </row>
+    <row r="9" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="55" t="s">
         <v>89</v>
       </c>
-      <c r="B9" s="60" t="s">
+      <c r="B9" s="55" t="s">
         <v>90</v>
       </c>
-      <c r="C9" s="60" t="s">
+      <c r="C9" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="D9" s="60" t="s">
+      <c r="D9" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="E9" s="60" t="s">
+      <c r="E9" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="F9" s="60" t="s">
+      <c r="F9" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60" t="s">
+      <c r="G9" s="55"/>
+      <c r="H9" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="I9" s="60" t="s">
+      <c r="I9" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="J9" s="60"/>
-    </row>
-    <row r="10" spans="1:11" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="60" t="s">
+      <c r="J9" s="55"/>
+    </row>
+    <row r="10" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="55" t="s">
         <v>91</v>
       </c>
-      <c r="B10" s="60" t="s">
+      <c r="B10" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="C10" s="60" t="s">
+      <c r="C10" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="60" t="s">
+      <c r="D10" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="E10" s="60" t="s">
+      <c r="E10" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60" t="s">
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="I10" s="60"/>
-      <c r="J10" s="60"/>
-    </row>
-    <row r="11" spans="1:11" s="59" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="60" t="s">
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
+    </row>
+    <row r="11" spans="1:11" s="54" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="55" t="s">
         <v>94</v>
       </c>
-      <c r="B11" s="60" t="s">
+      <c r="B11" s="55" t="s">
         <v>95</v>
       </c>
-      <c r="C11" s="60" t="s">
+      <c r="C11" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="D11" s="60" t="s">
+      <c r="D11" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="E11" s="60" t="s">
+      <c r="E11" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="F11" s="60" t="s">
+      <c r="F11" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60" t="s">
+      <c r="G11" s="55"/>
+      <c r="H11" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="I11" s="60" t="s">
+      <c r="I11" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="J11" s="60"/>
-    </row>
-    <row r="12" spans="1:11" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="60" t="s">
+      <c r="J11" s="55"/>
+    </row>
+    <row r="12" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="55" t="s">
         <v>96</v>
       </c>
-      <c r="B12" s="60" t="s">
+      <c r="B12" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="C12" s="60" t="s">
+      <c r="C12" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="D12" s="60" t="s">
+      <c r="D12" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="E12" s="60" t="s">
+      <c r="E12" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="F12" s="60" t="s">
+      <c r="F12" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60" t="s">
+      <c r="G12" s="55"/>
+      <c r="H12" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="I12" s="60" t="s">
+      <c r="I12" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="J12" s="60"/>
+      <c r="J12" s="55"/>
     </row>
     <row r="13" spans="1:11" ht="63" x14ac:dyDescent="0.25">
-      <c r="A13" s="63" t="s">
+      <c r="A13" s="58" t="s">
         <v>98</v>
       </c>
-      <c r="B13" s="63" t="s">
+      <c r="B13" s="58" t="s">
         <v>99</v>
       </c>
-      <c r="C13" s="60" t="s">
+      <c r="C13" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="D13" s="64" t="s">
+      <c r="D13" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="E13" s="64"/>
-      <c r="F13" s="65" t="s">
+      <c r="E13" s="59"/>
+      <c r="F13" s="60" t="s">
         <v>142</v>
       </c>
-      <c r="G13" s="63"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="60" t="s">
+      <c r="G13" s="58"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="J13" s="63"/>
-      <c r="K13" s="38" t="s">
+      <c r="J13" s="58"/>
+      <c r="K13" s="33" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="63" t="s">
+      <c r="A14" s="58" t="s">
         <v>102</v>
       </c>
-      <c r="B14" s="63" t="s">
+      <c r="B14" s="58" t="s">
         <v>103</v>
       </c>
-      <c r="C14" s="60" t="s">
+      <c r="C14" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="D14" s="64" t="s">
+      <c r="D14" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="E14" s="64"/>
-      <c r="F14" s="65" t="s">
+      <c r="E14" s="59"/>
+      <c r="F14" s="60" t="s">
         <v>143</v>
       </c>
-      <c r="G14" s="63"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60" t="s">
+      <c r="G14" s="58"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="J14" s="63"/>
+      <c r="J14" s="58"/>
     </row>
     <row r="15" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="63" t="s">
+      <c r="A15" s="58" t="s">
         <v>104</v>
       </c>
-      <c r="B15" s="63" t="s">
+      <c r="B15" s="58" t="s">
         <v>105</v>
       </c>
-      <c r="C15" s="60" t="s">
+      <c r="C15" s="55" t="s">
         <v>106</v>
       </c>
-      <c r="D15" s="63" t="s">
+      <c r="D15" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="E15" s="63" t="s">
+      <c r="E15" s="58" t="s">
         <v>141</v>
       </c>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="60" t="s">
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="38" t="s">
+      <c r="I15" s="58"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="33" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="65" t="s">
+      <c r="A16" s="60" t="s">
         <v>108</v>
       </c>
-      <c r="B16" s="65"/>
-      <c r="C16" s="61" t="s">
+      <c r="B16" s="60"/>
+      <c r="C16" s="56" t="s">
         <v>106</v>
       </c>
-      <c r="D16" s="65" t="s">
+      <c r="D16" s="60" t="s">
         <v>109</v>
       </c>
-      <c r="E16" s="64" t="s">
+      <c r="E16" s="59" t="s">
         <v>139</v>
       </c>
-      <c r="F16" s="64" t="s">
+      <c r="F16" s="59" t="s">
         <v>140</v>
       </c>
-      <c r="G16" s="64"/>
-      <c r="H16" s="65" t="s">
+      <c r="G16" s="59"/>
+      <c r="H16" s="60" t="s">
         <v>110</v>
       </c>
-      <c r="I16" s="65" t="s">
+      <c r="I16" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="J16" s="64"/>
-      <c r="K16" s="66" t="s">
+      <c r="J16" s="59"/>
+      <c r="K16" s="61" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="60" t="s">
+      <c r="A17" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="B17" s="60"/>
-      <c r="C17" s="60" t="s">
+      <c r="B17" s="55"/>
+      <c r="C17" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="D17" s="60" t="s">
+      <c r="D17" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="E17" s="60" t="s">
+      <c r="E17" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="F17" s="60" t="s">
+      <c r="F17" s="55" t="s">
         <v>115</v>
       </c>
-      <c r="G17" s="60"/>
-      <c r="H17" s="67" t="s">
+      <c r="G17" s="55"/>
+      <c r="H17" s="62" t="s">
         <v>116</v>
       </c>
-      <c r="I17" s="67" t="s">
+      <c r="I17" s="62" t="s">
         <v>117</v>
       </c>
-      <c r="J17" s="60"/>
-      <c r="K17" s="68" t="s">
+      <c r="J17" s="55"/>
+      <c r="K17" s="63" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="69" t="s">
+      <c r="A20" s="64" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="70" t="s">
+      <c r="A21" s="65" t="s">
         <v>120</v>
       </c>
-      <c r="B21" s="71" t="s">
+      <c r="B21" s="66" t="s">
         <v>121</v>
       </c>
-      <c r="C21" s="72" t="s">
+      <c r="C21" s="67" t="s">
         <v>122</v>
       </c>
-      <c r="D21" s="71"/>
-      <c r="E21" s="71"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="66"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="73" t="s">
+      <c r="A22" s="68" t="s">
         <v>123</v>
       </c>
-      <c r="B22" s="74" t="s">
+      <c r="B22" s="69" t="s">
         <v>124</v>
       </c>
-      <c r="C22" s="75" t="s">
+      <c r="C22" s="70" t="s">
         <v>125</v>
       </c>
-      <c r="D22" s="74"/>
-      <c r="E22" s="74"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="69"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="73" t="s">
+      <c r="A23" s="68" t="s">
         <v>126</v>
       </c>
-      <c r="B23" s="74" t="s">
+      <c r="B23" s="69" t="s">
         <v>127</v>
       </c>
-      <c r="C23" s="75" t="s">
+      <c r="C23" s="70" t="s">
         <v>128</v>
       </c>
-      <c r="D23" s="74"/>
-      <c r="E23" s="74"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
     </row>
     <row r="24" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="73" t="s">
+      <c r="A24" s="68" t="s">
         <v>129</v>
       </c>
-      <c r="B24" s="74" t="s">
+      <c r="B24" s="69" t="s">
         <v>130</v>
       </c>
-      <c r="C24" s="75" t="s">
+      <c r="C24" s="70" t="s">
         <v>131</v>
       </c>
-      <c r="D24" s="74"/>
-      <c r="E24" s="74"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="73" t="s">
+      <c r="A25" s="68" t="s">
         <v>132</v>
       </c>
-      <c r="B25" s="74" t="s">
+      <c r="B25" s="69" t="s">
         <v>133</v>
       </c>
-      <c r="C25" s="75" t="s">
+      <c r="C25" s="70" t="s">
         <v>134</v>
       </c>
-      <c r="D25" s="74"/>
-      <c r="E25" s="74"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
     </row>
     <row r="26" spans="1:11" ht="63" x14ac:dyDescent="0.25">
-      <c r="A26" s="73" t="s">
+      <c r="A26" s="68" t="s">
         <v>135</v>
       </c>
-      <c r="B26" s="74" t="s">
+      <c r="B26" s="69" t="s">
         <v>136</v>
       </c>
-      <c r="C26" s="75" t="s">
+      <c r="C26" s="70" t="s">
         <v>137</v>
       </c>
-      <c r="D26" s="74"/>
-      <c r="E26" s="74"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/fuentes/contenidos/grado05/guion01/SolicitudGraficaCS_05_01_CO.xlsx
+++ b/fuentes/contenidos/grado05/guion01/SolicitudGraficaCS_05_01_CO.xlsx
@@ -726,11 +726,13 @@
     <font>
       <sz val="10"/>
       <name val="Century Gothic"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Century Gothic"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -752,16 +754,19 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Century Gothic"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Century Gothic"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Century Gothic"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1661,6 +1666,32 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="51"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="51" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="51" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1692,6 +1723,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1756,35 +1790,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="51" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="51" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="52">
@@ -2536,8 +2541,8 @@
   <dimension ref="A1:P107"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="140" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+      <pane ySplit="9" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2575,14 +2580,14 @@
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="82" t="s">
+      <c r="C2" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="83"/>
-      <c r="F2" s="75" t="s">
+      <c r="D2" s="95"/>
+      <c r="F2" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="76"/>
+      <c r="G2" s="88"/>
       <c r="H2" s="51"/>
       <c r="I2" s="51"/>
       <c r="J2" s="16"/>
@@ -2592,14 +2597,14 @@
       <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="84">
+      <c r="C3" s="96">
         <v>5</v>
       </c>
-      <c r="D3" s="85"/>
-      <c r="F3" s="77">
+      <c r="D3" s="97"/>
+      <c r="F3" s="89">
         <v>42107</v>
       </c>
-      <c r="G3" s="78"/>
+      <c r="G3" s="90"/>
       <c r="H3" s="51"/>
       <c r="I3" s="51"/>
       <c r="J3" s="16"/>
@@ -2609,10 +2614,10 @@
       <c r="B4" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="110" t="s">
+      <c r="C4" s="98" t="s">
         <v>169</v>
       </c>
-      <c r="D4" s="85"/>
+      <c r="D4" s="97"/>
       <c r="E4" s="5"/>
       <c r="F4" s="50" t="s">
         <v>56</v>
@@ -2630,10 +2635,10 @@
       <c r="B5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="86" t="s">
+      <c r="C5" s="99" t="s">
         <v>148</v>
       </c>
-      <c r="D5" s="87"/>
+      <c r="D5" s="100"/>
       <c r="E5" s="5"/>
       <c r="F5" s="48" t="str">
         <f>IF(G4="Recurso","Motor del recurso","")</f>
@@ -2684,12 +2689,12 @@
       <c r="C8" s="10"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
-      <c r="F8" s="79" t="s">
+      <c r="F8" s="91" t="s">
         <v>63</v>
       </c>
-      <c r="G8" s="80"/>
-      <c r="H8" s="80"/>
-      <c r="I8" s="81"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="92"/>
+      <c r="I8" s="93"/>
       <c r="J8" s="18"/>
       <c r="K8" s="12"/>
       <c r="L8" s="2"/>
@@ -2734,7 +2739,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" s="12" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="106" t="s">
+      <c r="A10" s="75" t="s">
         <v>152</v>
       </c>
       <c r="B10" s="74" t="s">
@@ -2766,13 +2771,13 @@
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J10" s="107" t="s">
+      <c r="J10" s="76" t="s">
         <v>157</v>
       </c>
       <c r="K10" s="15"/>
     </row>
     <row r="11" spans="1:16" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="106" t="s">
+      <c r="A11" s="75" t="s">
         <v>155</v>
       </c>
       <c r="B11" s="74" t="s">
@@ -2804,13 +2809,13 @@
         <f>IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J11" s="107" t="s">
+      <c r="J11" s="76" t="s">
         <v>158</v>
       </c>
       <c r="K11" s="19"/>
     </row>
     <row r="12" spans="1:16" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="106" t="s">
+      <c r="A12" s="75" t="s">
         <v>159</v>
       </c>
       <c r="B12" s="74" t="s">
@@ -2842,13 +2847,13 @@
         <f>IF(OR(B12&lt;&gt;"",J12&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J12" s="106" t="s">
+      <c r="J12" s="75" t="s">
         <v>161</v>
       </c>
       <c r="K12" s="19"/>
     </row>
     <row r="13" spans="1:16" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="106" t="s">
+      <c r="A13" s="75" t="s">
         <v>162</v>
       </c>
       <c r="B13" s="74" t="s">
@@ -2880,13 +2885,13 @@
         <f>IF(OR(B13&lt;&gt;"",J13&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J13" s="106" t="s">
+      <c r="J13" s="75" t="s">
         <v>163</v>
       </c>
       <c r="K13" s="19"/>
     </row>
     <row r="14" spans="1:16" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="108" t="s">
+      <c r="A14" s="77" t="s">
         <v>164</v>
       </c>
       <c r="B14" s="74" t="s">
@@ -2918,13 +2923,13 @@
         <f>IF(OR(B14&lt;&gt;"",J14&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J14" s="109" t="s">
+      <c r="J14" s="78" t="s">
         <v>166</v>
       </c>
       <c r="K14" s="21"/>
     </row>
     <row r="15" spans="1:16" s="12" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="106" t="s">
+      <c r="A15" s="75" t="s">
         <v>167</v>
       </c>
       <c r="B15" s="74" t="s">
@@ -2956,16 +2961,16 @@
         <f>IF(OR(B15&lt;&gt;"",J15&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J15" s="106" t="s">
+      <c r="J15" s="75" t="s">
         <v>170</v>
       </c>
       <c r="K15" s="32"/>
     </row>
     <row r="16" spans="1:16" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="106" t="s">
+      <c r="A16" s="75" t="s">
         <v>171</v>
       </c>
-      <c r="B16" s="111" t="s">
+      <c r="B16" s="79" t="s">
         <v>172</v>
       </c>
       <c r="C16" s="27" t="str">
@@ -2994,16 +2999,16 @@
         <f>IF(OR(B16&lt;&gt;"",J16&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J16" s="106" t="s">
+      <c r="J16" s="75" t="s">
         <v>173</v>
       </c>
       <c r="K16" s="21"/>
     </row>
     <row r="17" spans="1:11" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="106" t="s">
+      <c r="A17" s="75" t="s">
         <v>174</v>
       </c>
-      <c r="B17" s="112" t="s">
+      <c r="B17" s="80" t="s">
         <v>175</v>
       </c>
       <c r="C17" s="27" t="str">
@@ -3032,13 +3037,13 @@
         <f>IF(OR(B17&lt;&gt;"",J17&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J17" s="113" t="s">
+      <c r="J17" s="81" t="s">
         <v>176</v>
       </c>
       <c r="K17" s="21"/>
     </row>
     <row r="18" spans="1:11" s="12" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="106" t="s">
+      <c r="A18" s="75" t="s">
         <v>177</v>
       </c>
       <c r="B18" s="74" t="s">
@@ -3070,13 +3075,13 @@
         <f>IF(OR(B18&lt;&gt;"",J18&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J18" s="106" t="s">
+      <c r="J18" s="75" t="s">
         <v>179</v>
       </c>
       <c r="K18" s="32"/>
     </row>
     <row r="19" spans="1:11" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="106" t="s">
+      <c r="A19" s="75" t="s">
         <v>180</v>
       </c>
       <c r="B19" s="74" t="s">
@@ -3108,13 +3113,13 @@
         <f>IF(OR(B19&lt;&gt;"",J19&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J19" s="106" t="s">
+      <c r="J19" s="75" t="s">
         <v>182</v>
       </c>
       <c r="K19" s="21"/>
     </row>
     <row r="20" spans="1:11" s="12" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="106" t="s">
+      <c r="A20" s="75" t="s">
         <v>183</v>
       </c>
       <c r="B20" s="74" t="s">
@@ -3146,16 +3151,16 @@
         <f>IF(OR(B20&lt;&gt;"",J20&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J20" s="106" t="s">
+      <c r="J20" s="75" t="s">
         <v>185</v>
       </c>
       <c r="K20" s="21"/>
     </row>
     <row r="21" spans="1:11" s="12" customFormat="1" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="106" t="s">
+      <c r="A21" s="75" t="s">
         <v>186</v>
       </c>
-      <c r="B21" s="114" t="s">
+      <c r="B21" s="82" t="s">
         <v>187</v>
       </c>
       <c r="C21" s="27" t="str">
@@ -3184,19 +3189,19 @@
         <f>IF(OR(B21&lt;&gt;"",J21&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J21" s="106" t="s">
+      <c r="J21" s="75" t="s">
         <v>163</v>
       </c>
       <c r="K21" s="20"/>
     </row>
     <row r="22" spans="1:11" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="106" t="s">
+      <c r="A22" s="75" t="s">
         <v>188</v>
       </c>
       <c r="B22" s="74" t="s">
         <v>189</v>
       </c>
-      <c r="C22" s="115" t="s">
+      <c r="C22" s="83" t="s">
         <v>149</v>
       </c>
       <c r="D22" s="14" t="s">
@@ -3221,19 +3226,19 @@
         <f>IF(OR(B22&lt;&gt;"",J22&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J22" s="106" t="s">
+      <c r="J22" s="75" t="s">
         <v>190</v>
       </c>
       <c r="K22" s="19"/>
     </row>
     <row r="23" spans="1:11" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="106" t="s">
+      <c r="A23" s="75" t="s">
         <v>191</v>
       </c>
       <c r="B23" s="74" t="s">
         <v>192</v>
       </c>
-      <c r="C23" s="116" t="s">
+      <c r="C23" s="84" t="s">
         <v>149</v>
       </c>
       <c r="D23" s="14" t="s">
@@ -3258,19 +3263,19 @@
         <f>IF(OR(B23&lt;&gt;"",J23&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J23" s="117" t="s">
+      <c r="J23" s="85" t="s">
         <v>193</v>
       </c>
       <c r="K23" s="15"/>
     </row>
     <row r="24" spans="1:11" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="106" t="s">
+      <c r="A24" s="75" t="s">
         <v>194</v>
       </c>
       <c r="B24" s="74" t="s">
         <v>195</v>
       </c>
-      <c r="C24" s="115" t="s">
+      <c r="C24" s="83" t="s">
         <v>149</v>
       </c>
       <c r="D24" s="14" t="s">
@@ -3295,19 +3300,19 @@
         <f>IF(OR(B24&lt;&gt;"",J24&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J24" s="117" t="s">
+      <c r="J24" s="85" t="s">
         <v>196</v>
       </c>
       <c r="K24" s="19"/>
     </row>
     <row r="25" spans="1:11" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="106" t="s">
+      <c r="A25" s="75" t="s">
         <v>197</v>
       </c>
       <c r="B25" s="74" t="s">
         <v>198</v>
       </c>
-      <c r="C25" s="115" t="s">
+      <c r="C25" s="83" t="s">
         <v>149</v>
       </c>
       <c r="D25" s="14" t="s">
@@ -3332,19 +3337,19 @@
         <f>IF(OR(B25&lt;&gt;"",J25&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J25" s="106" t="s">
+      <c r="J25" s="75" t="s">
         <v>199</v>
       </c>
       <c r="K25" s="19"/>
     </row>
     <row r="26" spans="1:11" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="106" t="s">
+      <c r="A26" s="75" t="s">
         <v>200</v>
       </c>
-      <c r="B26" s="118" t="s">
+      <c r="B26" s="86" t="s">
         <v>201</v>
       </c>
-      <c r="C26" s="115" t="s">
+      <c r="C26" s="83" t="s">
         <v>149</v>
       </c>
       <c r="D26" s="14" t="s">
@@ -3369,14 +3374,14 @@
         <f>IF(OR(B26&lt;&gt;"",J26&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J26" s="106" t="s">
+      <c r="J26" s="75" t="s">
         <v>202</v>
       </c>
       <c r="K26" s="19"/>
     </row>
     <row r="27" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="str">
-        <f t="shared" ref="A11:A29" si="3">IF(OR(B27&lt;&gt;"",J27&lt;&gt;""),CONCATENATE(LEFT(A26,3),IF(MID(A26,4,2)+1&lt;10,CONCATENATE("0",MID(A26,4,2)+1))),"")</f>
+        <f t="shared" ref="A27:A29" si="3">IF(OR(B27&lt;&gt;"",J27&lt;&gt;""),CONCATENATE(LEFT(A26,3),IF(MID(A26,4,2)+1&lt;10,CONCATENATE("0",MID(A26,4,2)+1))),"")</f>
         <v/>
       </c>
       <c r="B27" s="27"/>
@@ -5503,25 +5508,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="103" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="92"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="105"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="41" t="s">
         <v>43</v>
       </c>
       <c r="B2" s="42"/>
-      <c r="C2" s="93" t="s">
+      <c r="C2" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="94"/>
-      <c r="E2" s="95"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="108"/>
       <c r="F2" s="43"/>
     </row>
     <row r="3" spans="1:11" ht="63" x14ac:dyDescent="0.25">
@@ -5529,11 +5534,11 @@
         <v>44</v>
       </c>
       <c r="B3" s="42"/>
-      <c r="C3" s="99" t="s">
+      <c r="C3" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="100"/>
-      <c r="E3" s="101"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="114"/>
       <c r="F3" s="43"/>
       <c r="H3" s="33" t="s">
         <v>19</v>
@@ -5584,11 +5589,11 @@
       <c r="C5" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="102" t="str">
+      <c r="D5" s="115" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_CO")</f>
         <v>LE_07_04_CO</v>
       </c>
-      <c r="E5" s="103"/>
+      <c r="E5" s="116"/>
       <c r="F5" s="43"/>
       <c r="H5" s="33" t="s">
         <v>23</v>
@@ -5633,12 +5638,12 @@
       <c r="C7" s="73" t="s">
         <v>144</v>
       </c>
-      <c r="D7" s="88" t="str">
+      <c r="D7" s="101" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D5,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_CO.xls</v>
       </c>
-      <c r="E7" s="88"/>
-      <c r="F7" s="89"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="102"/>
       <c r="H7" s="33" t="s">
         <v>25</v>
       </c>
@@ -5732,14 +5737,14 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="90" t="s">
+      <c r="A13" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="91"/>
-      <c r="C13" s="91"/>
-      <c r="D13" s="91"/>
-      <c r="E13" s="91"/>
-      <c r="F13" s="92"/>
+      <c r="B13" s="104"/>
+      <c r="C13" s="104"/>
+      <c r="D13" s="104"/>
+      <c r="E13" s="104"/>
+      <c r="F13" s="105"/>
       <c r="I13" s="33" t="s">
         <v>34</v>
       </c>
@@ -5772,12 +5777,12 @@
         <v>47</v>
       </c>
       <c r="B15" s="42"/>
-      <c r="C15" s="93" t="s">
+      <c r="C15" s="106" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="94"/>
-      <c r="E15" s="94"/>
-      <c r="F15" s="95"/>
+      <c r="D15" s="107"/>
+      <c r="E15" s="107"/>
+      <c r="F15" s="108"/>
       <c r="J15" s="33">
         <v>12</v>
       </c>
@@ -5817,12 +5822,12 @@
       <c r="C17" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="96" t="str">
+      <c r="D17" s="109" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_",K45)</f>
         <v>LE_07_04_REC10</v>
       </c>
-      <c r="E17" s="97"/>
-      <c r="F17" s="98"/>
+      <c r="E17" s="110"/>
+      <c r="F17" s="111"/>
       <c r="J17" s="33">
         <v>14</v>
       </c>
@@ -5838,12 +5843,12 @@
       <c r="C18" s="73" t="s">
         <v>145</v>
       </c>
-      <c r="D18" s="88" t="str">
+      <c r="D18" s="101" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D17,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_REC10.xls</v>
       </c>
-      <c r="E18" s="88"/>
-      <c r="F18" s="89"/>
+      <c r="E18" s="101"/>
+      <c r="F18" s="102"/>
       <c r="J18" s="33">
         <v>15</v>
       </c>
@@ -6234,41 +6239,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="117" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="104" t="s">
+      <c r="B1" s="117" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="104" t="s">
+      <c r="C1" s="117" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="104" t="s">
+      <c r="D1" s="117" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="104" t="s">
+      <c r="E1" s="117" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="104" t="s">
+      <c r="F1" s="117" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="104" t="s">
+      <c r="G1" s="117" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="105" t="s">
+      <c r="H1" s="118" t="s">
         <v>69</v>
       </c>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="104"/>
-      <c r="B2" s="104"/>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
+      <c r="A2" s="117"/>
+      <c r="B2" s="117"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
       <c r="H2" s="52" t="s">
         <v>66</v>
       </c>
